--- a/biology/Histoire de la zoologie et de la botanique/Othmar_Reiser/Othmar_Reiser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Othmar_Reiser/Othmar_Reiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Othmar Reiser est un ornithologue autrichien, né le 21 décembre 1861 à Vienne et mort le 31 mars 1936 à Pekre, un village près de Maribor.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un important homme de loi, il fait ses études à Vienne. Après son service militaire (1882-1883), il étudie la foresterie à l’académie d’agriculture de Vienne.
 Passionné très tôt par la nature, il fait paraître à 22 ans ses premières observations. Membre actif de la société ornithologique de Vienne, il devient le rédacteur en chef de sa publication (1885), Mitteilungen.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C.E.H. (1936). Obituary, Ibis, 78 (3) : 612-614.</t>
         </is>
